--- a/BetaCinema.ServerUI/Template/ExportTemplates/UserExport.xlsx
+++ b/BetaCinema.ServerUI/Template/ExportTemplates/UserExport.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\blazor\BetaCinema\BetaCinema.ServerUI\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\blazor\BetaCinema\BetaCinema.ServerUI\Template\ExportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38804249-EEB6-4AB1-AAA2-D22D68EE57CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8624B9AD-FD3C-43BB-9B23-36119CE6D883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DANH SÁCH NGƯỜI DÙNG" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>STT</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Vai trò</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liên kết avatar </t>
   </si>
   <si>
     <t>Bị xóa</t>
@@ -453,22 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B78FB58-FC69-45B8-BE8C-0DCDA3C69853}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.21875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="36.77734375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -476,17 +471,15 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -502,11 +495,8 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -514,12 +504,11 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
